--- a/validation/Relative Results.xlsx
+++ b/validation/Relative Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/glassfiber/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9FE805-CE91-9D40-AF9F-C5C0D8AD2722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F221CF86-AD92-C640-B125-678B1E024FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68980" yWindow="3860" windowWidth="28040" windowHeight="17440" xr2:uid="{F1FE6F8A-5EA9-DC44-B3BA-9FE5B45016D0}"/>
+    <workbookView xWindow="77220" yWindow="780" windowWidth="28040" windowHeight="17440" xr2:uid="{F1FE6F8A-5EA9-DC44-B3BA-9FE5B45016D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="36">
   <si>
     <t>Decile 10 Maximum</t>
   </si>
@@ -59,15 +59,9 @@
     <t>Range</t>
   </si>
   <si>
-    <t>14-20</t>
-  </si>
-  <si>
     <t>ANNUALIZED EMISSIONS</t>
   </si>
   <si>
-    <t>50-100</t>
-  </si>
-  <si>
     <t>ANNUALIZED SCC</t>
   </si>
   <si>
@@ -93,6 +87,63 @@
   </si>
   <si>
     <t>Relative Percentage</t>
+  </si>
+  <si>
+    <t>TOTAL  COSTS</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>GDP Comparison</t>
+  </si>
+  <si>
+    <t>17-23</t>
+  </si>
+  <si>
+    <t>Decile 6 Regional</t>
+  </si>
+  <si>
+    <t>Decile 6 Access</t>
+  </si>
+  <si>
+    <t>ANNUALIZED COSTS DECILE 6-10</t>
+  </si>
+  <si>
+    <t>ANNUALIZED COSTS DECILE 1-5</t>
+  </si>
+  <si>
+    <t>Decile 5 Regional</t>
+  </si>
+  <si>
+    <t>Decile 5 Access</t>
+  </si>
+  <si>
+    <t>TOTAL  EMISSIONS</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>WORLD BANK CARBON  2019</t>
+  </si>
+  <si>
+    <t>EMISSIONS</t>
+  </si>
+  <si>
+    <t>8--53</t>
+  </si>
+  <si>
+    <t>ANNUALIZED  EMISSIONS PER USER</t>
+  </si>
+  <si>
+    <t>EMISSIONS PER USER</t>
+  </si>
+  <si>
+    <t>TOTAL  SCC</t>
+  </si>
+  <si>
+    <t>SCC PER USER</t>
   </si>
 </sst>
 </file>
@@ -226,20 +277,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -251,15 +302,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CB984D-72EE-1743-98B5-CA75AB58EBF9}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,35 +665,36 @@
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="14"/>
+      <c r="E1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="I1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -648,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>0</v>
@@ -669,14 +729,14 @@
       </c>
       <c r="B4" s="2">
         <f>B3/B2</f>
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="2">
         <f>F3/F2</f>
-        <v>50</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>3</v>
@@ -699,13 +759,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>1E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
@@ -719,13 +779,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>5</v>
@@ -740,14 +800,14 @@
       </c>
       <c r="B8" s="3">
         <f>B7/B6</f>
-        <v>14.285714285714285</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="3">
         <f>F7/F6</f>
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>3</v>
@@ -770,81 +830,81 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B19" s="7">
+        <f>((B17-B18)/(B17))</f>
+        <v>0.95874999999999999</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="15">
-        <f>((B17-B18)/(B17))</f>
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="15">
+      <c r="D19" s="7">
         <f>((D17-D18)/(D17))</f>
-        <v>0.95</v>
+        <v>0.94761904761904758</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -855,111 +915,111 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1">
         <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="15">
+      <c r="A23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7">
         <f>(B21-B22)/(B21)</f>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="15">
+        <v>0.99194444444444452</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7">
         <f>((D21-D22)/(D21))</f>
-        <v>0.98666666666666669</v>
+        <v>0.98787878787878791</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="16"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="13"/>
+      <c r="A27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1">
-        <v>4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B30" s="7">
+        <f>((B28-B29)/(B28))</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="15">
-        <f>((B28-B29)/(B28))</f>
-        <v>0.995</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="15">
+      <c r="D30" s="7">
         <f>((D28-D29)/(D28))</f>
-        <v>0.97750000000000004</v>
+        <v>0.97953488372093023</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -970,59 +1030,1076 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1">
         <v>0.02</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="7">
+        <f>(B32-B33)/(B32)</f>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="7">
+        <f>((D32-D33)/(D32))</f>
+        <v>0.98750000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="1">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2032.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
+        <v>15</v>
+      </c>
+      <c r="E39" s="17">
+        <f>(B39/F38)</f>
+        <v>5.9033329233796575E-4</v>
+      </c>
+      <c r="F39" s="17">
+        <f>D39/F38</f>
+        <v>7.3791661542245727E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E40" s="17">
+        <f>B40/F38</f>
+        <v>1.3282499077604232E-4</v>
+      </c>
+      <c r="F40" s="17">
+        <f>D40/F38</f>
+        <v>2.2137498462673718E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="7">
+        <f>((B39-B40)/(B39))</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="7">
+        <f>((D39-D40)/(D39))</f>
+        <v>0.7</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>26</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1">
+        <v>25</v>
+      </c>
+      <c r="E43" s="17">
+        <f>B43/F38</f>
+        <v>1.2790554667322592E-2</v>
+      </c>
+      <c r="F43" s="17">
+        <f>D43/F38</f>
+        <v>1.2298610257040954E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E44" s="17">
+        <f>B44/F38</f>
+        <v>5.9033329233796575E-4</v>
+      </c>
+      <c r="F44" s="17">
+        <f>D44/F38</f>
+        <v>7.8711105645062115E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="7">
+        <f>(B43-B44)/(B43)</f>
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="7">
+        <f>((D43-D44)/(D43))</f>
+        <v>0.93599999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="7">
+        <f>((B50-B51)/(B50))</f>
+        <v>0.65</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="7">
+        <f>((D50-D51)/(D50))</f>
+        <v>0.47619047619047616</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1">
+        <v>36</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1">
+        <v>13</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="7">
+        <f>(B54-B55)/(B54)</f>
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="7">
+        <f>((D54-D55)/(D54))</f>
+        <v>0.60606060606060608</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="7">
+        <f>((B61-B62)/(B61))</f>
+        <v>0.85</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="7">
+        <f>((D61-D62)/(D61))</f>
+        <v>0.88297872340425532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="7">
+        <f>(B65-B66)/(B65)</f>
+        <v>0.97010309278350526</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="7">
+        <f>((D65-D66)/(D65))</f>
+        <v>0.95294117647058818</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="19"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71">
+        <v>833.71299999999997</v>
+      </c>
+      <c r="G71">
+        <v>833.71299999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E72" s="17">
+        <f>(B72/F71)</f>
+        <v>1.6792349405610806E-4</v>
+      </c>
+      <c r="F72" s="17">
+        <f>D72/F71</f>
+        <v>3.8382512927110412E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="E73" s="17">
+        <f>B73/F71</f>
+        <v>7.1967211738332011E-5</v>
+      </c>
+      <c r="F73" s="17">
+        <f>D73/F71</f>
+        <v>4.437978057197141E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="20">
+        <f>B72/B73</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="20">
+        <f>D72/D73</f>
+        <v>8.6486486486486491</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="E76" s="17">
+        <f>B76/F71</f>
+        <v>1.6792349405610803E-3</v>
+      </c>
+      <c r="F76" s="17">
+        <f>D76/F71</f>
+        <v>8.5161200557026216E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="E77" s="17">
+        <f>B77/F71</f>
+        <v>9.7155735846748227E-5</v>
+      </c>
+      <c r="F77" s="17">
+        <f>D77/F71</f>
+        <v>5.8773222919637812E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="20">
+        <f>B76/B77</f>
+        <v>17.283950617283949</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="20">
+        <f>D76/D77</f>
+        <v>14.489795918367346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="20">
+        <f>B83/B84</f>
+        <v>12</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="20">
+        <f>D83/D84</f>
+        <v>48.863636363636367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="20">
+        <f>B87/B88</f>
+        <v>90</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="20">
+        <f>D87/D88</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="13"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="10"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="20">
+        <f>B94/B95</f>
+        <v>125.00000000000001</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="20">
+        <f>D94/D95</f>
+        <v>47.777777777777771</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="1">
+        <v>55</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="20">
+        <f>B98/B99</f>
+        <v>93.220338983050851</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="20">
+        <f>D98/D99</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="13"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="10"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="1">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="20">
+        <f>B105/B106</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" s="20">
+        <f>D105/D106</f>
+        <v>8.8888888888888893</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="15">
-        <f>(B32-B33)/(B32)</f>
-        <v>0.99</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="15">
-        <f>((D32-D33)/(D32))</f>
-        <v>0.99</v>
+      <c r="C109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="1">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111" s="20">
+        <f>B109/B110</f>
+        <v>16.393442622950818</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="20">
+        <f>D109/D110</f>
+        <v>14.722222222222223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="13"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="10"/>
+      <c r="C115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="10"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" s="20">
+        <f>B116/B117</f>
+        <v>12.424242424242422</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="20">
+        <f>D116/D117</f>
+        <v>48.499999999999993</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" s="20">
+        <f>B120/B121</f>
+        <v>93.181818181818173</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="20">
+        <f>D120/D121</f>
+        <v>84.615384615384613</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="35">
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validation/Relative Results.xlsx
+++ b/validation/Relative Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/glassfiber/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F221CF86-AD92-C640-B125-678B1E024FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CAED50-4D02-A34D-9B9E-5206B9774ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77220" yWindow="780" windowWidth="28040" windowHeight="17440" xr2:uid="{F1FE6F8A-5EA9-DC44-B3BA-9FE5B45016D0}"/>
+    <workbookView xWindow="53100" yWindow="500" windowWidth="30180" windowHeight="26740" xr2:uid="{F1FE6F8A-5EA9-DC44-B3BA-9FE5B45016D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,12 +287,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,6 +296,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -311,14 +319,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CB984D-72EE-1743-98B5-CA75AB58EBF9}">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,18 +670,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="I1" s="16" t="s">
+      <c r="F1" s="19"/>
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -854,14 +854,14 @@
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -969,14 +969,14 @@
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -1079,20 +1079,20 @@
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="19"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="1" t="s">
         <v>18</v>
       </c>
@@ -1113,11 +1113,11 @@
       <c r="D39" s="1">
         <v>15</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="9">
         <f>(B39/F38)</f>
         <v>5.9033329233796575E-4</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="9">
         <f>D39/F38</f>
         <v>7.3791661542245727E-3</v>
       </c>
@@ -1135,11 +1135,11 @@
       <c r="D40" s="1">
         <v>4.5</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="9">
         <f>B40/F38</f>
         <v>1.3282499077604232E-4</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="9">
         <f>D40/F38</f>
         <v>2.2137498462673718E-3</v>
       </c>
@@ -1183,11 +1183,11 @@
       <c r="D43" s="1">
         <v>25</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="9">
         <f>B43/F38</f>
         <v>1.2790554667322592E-2</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="9">
         <f>D43/F38</f>
         <v>1.2298610257040954E-2</v>
       </c>
@@ -1205,11 +1205,11 @@
       <c r="D44" s="1">
         <v>1.6</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="9">
         <f>B44/F38</f>
         <v>5.9033329233796575E-4</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="9">
         <f>D44/F38</f>
         <v>7.8711105645062115E-4</v>
       </c>
@@ -1239,14 +1239,14 @@
       <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="15"/>
+      <c r="C49" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1351,14 +1351,14 @@
       <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="9" t="s">
+      <c r="B60" s="15"/>
+      <c r="C60" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="15"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -1461,20 +1461,20 @@
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="13"/>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="19"/>
+      <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="9" t="s">
+      <c r="B71" s="15"/>
+      <c r="C71" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="10"/>
+      <c r="D71" s="15"/>
       <c r="E71" s="1" t="s">
         <v>30</v>
       </c>
@@ -1498,11 +1498,11 @@
       <c r="D72" s="1">
         <v>3.2</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="9">
         <f>(B72/F71)</f>
         <v>1.6792349405610806E-4</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="9">
         <f>D72/F71</f>
         <v>3.8382512927110412E-3</v>
       </c>
@@ -1520,11 +1520,11 @@
       <c r="D73" s="1">
         <v>0.37</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="9">
         <f>B73/F71</f>
         <v>7.1967211738332011E-5</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="9">
         <f>D73/F71</f>
         <v>4.437978057197141E-4</v>
       </c>
@@ -1533,14 +1533,14 @@
       <c r="A74" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="20">
+      <c r="B74" s="10">
         <f>B72/B73</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="10">
         <f>D72/D73</f>
         <v>8.6486486486486491</v>
       </c>
@@ -1568,11 +1568,11 @@
       <c r="D76" s="1">
         <v>7.1</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="9">
         <f>B76/F71</f>
         <v>1.6792349405610803E-3</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="9">
         <f>D76/F71</f>
         <v>8.5161200557026216E-3</v>
       </c>
@@ -1590,11 +1590,11 @@
       <c r="D77" s="1">
         <v>0.49</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="9">
         <f>B77/F71</f>
         <v>9.7155735846748227E-5</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="9">
         <f>D77/F71</f>
         <v>5.8773222919637812E-4</v>
       </c>
@@ -1603,14 +1603,14 @@
       <c r="A78" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="20">
+      <c r="B78" s="10">
         <f>B76/B77</f>
         <v>17.283950617283949</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="10">
         <f>D76/D77</f>
         <v>14.489795918367346</v>
       </c>
@@ -1624,14 +1624,14 @@
       <c r="D81" s="13"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="9" t="s">
+      <c r="B82" s="15"/>
+      <c r="C82" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="10"/>
+      <c r="D82" s="15"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
@@ -1665,14 +1665,14 @@
       <c r="A85" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="20">
+      <c r="B85" s="10">
         <f>B83/B84</f>
         <v>12</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="10">
         <f>D83/D84</f>
         <v>48.863636363636367</v>
       </c>
@@ -1715,14 +1715,14 @@
       <c r="A89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="20">
+      <c r="B89" s="10">
         <f>B87/B88</f>
         <v>90</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="10">
         <f>D87/D88</f>
         <v>80</v>
       </c>
@@ -1736,14 +1736,14 @@
       <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="9" t="s">
+      <c r="B93" s="15"/>
+      <c r="C93" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="10"/>
+      <c r="D93" s="15"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
@@ -1777,14 +1777,14 @@
       <c r="A96" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B96" s="20">
+      <c r="B96" s="10">
         <f>B94/B95</f>
         <v>125.00000000000001</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D96" s="10">
         <f>D94/D95</f>
         <v>47.777777777777771</v>
       </c>
@@ -1827,14 +1827,14 @@
       <c r="A100" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B100" s="20">
+      <c r="B100" s="10">
         <f>B98/B99</f>
         <v>93.220338983050851</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D100" s="20">
+      <c r="D100" s="10">
         <f>D98/D99</f>
         <v>82</v>
       </c>
@@ -1848,14 +1848,14 @@
       <c r="D103" s="13"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="9" t="s">
+      <c r="B104" s="15"/>
+      <c r="C104" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="10"/>
+      <c r="D104" s="15"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
@@ -1889,14 +1889,14 @@
       <c r="A107" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B107" s="20">
+      <c r="B107" s="10">
         <f>B105/B106</f>
         <v>2.2222222222222223</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D107" s="20">
+      <c r="D107" s="10">
         <f>D105/D106</f>
         <v>8.8888888888888893</v>
       </c>
@@ -1939,14 +1939,14 @@
       <c r="A111" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B111" s="20">
+      <c r="B111" s="10">
         <f>B109/B110</f>
         <v>16.393442622950818</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D111" s="20">
+      <c r="D111" s="10">
         <f>D109/D110</f>
         <v>14.722222222222223</v>
       </c>
@@ -1960,14 +1960,14 @@
       <c r="D114" s="13"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="10"/>
-      <c r="C115" s="9" t="s">
+      <c r="B115" s="15"/>
+      <c r="C115" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="10"/>
+      <c r="D115" s="15"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
@@ -2001,14 +2001,14 @@
       <c r="A118" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B118" s="20">
+      <c r="B118" s="10">
         <f>B116/B117</f>
         <v>12.424242424242422</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D118" s="20">
+      <c r="D118" s="10">
         <f>D116/D117</f>
         <v>48.499999999999993</v>
       </c>
@@ -2051,45 +2051,20 @@
       <c r="A122" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B122" s="20">
+      <c r="B122" s="10">
         <f>B120/B121</f>
         <v>93.181818181818173</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D122" s="20">
+      <c r="D122" s="10">
         <f>D120/D121</f>
         <v>84.615384615384613</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="I1:J1"/>
@@ -2100,6 +2075,31 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:D115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
